--- a/KUPT6BB3.xlsx
+++ b/KUPT6BB3.xlsx
@@ -17,37 +17,37 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>BD-PJ (KUPT6BB3) /PJ</t>
+  </si>
+  <si>
+    <t>KUPT6BB3</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
     <t>vendredi</t>
-  </si>
-  <si>
-    <t>BD-PJ (KUPT6BB3) /PJ</t>
-  </si>
-  <si>
-    <t>KUPT6BB3</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
-    <t>jeudi</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>lundi</t>
   </si>
   <si>
     <t>7:45</t>
@@ -116,7 +116,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45023.0</v>
+        <v>46119.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -147,7 +147,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -186,7 +186,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>45036.0</v>
+        <v>46132.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>8</v>
@@ -217,7 +217,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>45038.0</v>
+        <v>46134.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>9</v>
@@ -271,7 +271,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>45039.0</v>
+        <v>46135.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>7</v>
@@ -325,7 +325,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>45040.0</v>
+        <v>46136.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>11</v>
@@ -387,7 +387,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>7</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>45064.0</v>
+        <v>46160.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>8</v>
